--- a/Tables/DoctorAssistent.xlsx
+++ b/Tables/DoctorAssistent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78752B8-5A4F-4D73-92C1-5D70491BDDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E71B67-99E7-45C6-88D2-C080D8A27EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="430" windowWidth="10430" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Фамилия </t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Викторовна</t>
+  </si>
+  <si>
+    <t>Доктор</t>
   </si>
 </sst>
 </file>
@@ -447,11 +447,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A12:F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -460,19 +461,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -498,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -512,17 +513,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -534,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -552,13 +553,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -570,13 +571,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -588,13 +589,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -606,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -624,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -642,13 +643,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="E11">
         <v>1</v>
